--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value233.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value233.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.6659096935397314</v>
+        <v>1.194401264190674</v>
       </c>
       <c r="B1">
-        <v>0.6383212605061573</v>
+        <v>2.128674268722534</v>
       </c>
       <c r="C1">
-        <v>0.6496723194230486</v>
+        <v>3.880314350128174</v>
       </c>
       <c r="D1">
-        <v>0.8464760558471958</v>
+        <v>3.30093240737915</v>
       </c>
       <c r="E1">
-        <v>1.38499906559671</v>
+        <v>1.13032066822052</v>
       </c>
     </row>
   </sheetData>
